--- a/M Partner13Oct20.xlsx
+++ b/M Partner13Oct20.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Digital Apk-Bugs" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Summary" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="OnGrid Apk-Bugs" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Summary" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Digital Apk-Bugs'!$A$4:$R$23</definedName>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="102">
   <si>
     <t xml:space="preserve">Bug Report </t>
   </si>
@@ -269,6 +271,45 @@
     <t xml:space="preserve">13-10-2026</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpartner-OnGrid APK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developers Status </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar Load Calculator: No error appears for entering invalid pin number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is already logged-in as distributor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Go to the solar calculator under side menu.                                                  2) Click on Solar (Gird On Solution) button.                   3) click on Residential button.                     3) Enter invlid data in Pin code and enter valid data in remaining mandatory fields.                         4) Click on Calculate Button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000000, 00,1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar Load Calculator: No error appears for entering invalid monthly bills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Go to the solar calculator under side menu.                                                  2) Click on Solar (Gird On Solution) button.                   3) click on Residential button.                     3) Enter invalid data in Pin Monthly bill and enter valid data in remaining mandatory fields.                         4) Click on Calculate Button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar Load Calculator: App does not calculate the load even with the valid data. That is nothing happens when clicking on calculate button with valid data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Go to the solar calculator under side menu.                                                  2) Click on Solar (Gird On Solution) button.                   3) click on Residential button.  4) enter valid data in all mandatory fields.                         5) Click on Calculate Button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN COde=110005,110096                                                      Delhi, New Delhi,             Monthly bills=1500, 4500,5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is already logged-in as dealer</t>
+  </si>
+  <si>
     <t xml:space="preserve">MPartner-Digital Apk</t>
   </si>
   <si>
@@ -286,6 +327,12 @@
   <si>
     <t xml:space="preserve">Digital Apk</t>
   </si>
+  <si>
+    <t xml:space="preserve">OnGrid Apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
 </sst>
 </file>
 
@@ -294,7 +341,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -412,8 +459,15 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,13 +501,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9DC3E6"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD0CECE"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -466,6 +520,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFD0CECE"/>
       </patternFill>
     </fill>
   </fills>
@@ -517,7 +577,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -598,6 +658,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -618,7 +682,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -631,6 +695,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -659,7 +731,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFD0CECE"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -668,7 +740,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFD0CECE"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -717,22 +789,22 @@
   </sheetPr>
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.97"/>
   </cols>
   <sheetData>
@@ -30350,13 +30422,572 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C3:G7"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.92"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="6" t="n">
+        <v>12619</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" s="17" customFormat="true" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="n">
+        <v>12619</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="16"/>
+    </row>
+    <row r="6" s="17" customFormat="true" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="n">
+        <v>12619</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="16"/>
+    </row>
+    <row r="7" s="17" customFormat="true" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="n">
+        <v>12619</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="16"/>
+    </row>
+    <row r="8" s="17" customFormat="true" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="n">
+        <v>12619</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="16"/>
+    </row>
+    <row r="9" s="17" customFormat="true" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="n">
+        <v>12619</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="16"/>
+    </row>
+    <row r="10" s="17" customFormat="true" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="n">
+        <v>12619</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="16"/>
+    </row>
+    <row r="11" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="n">
+        <v>12619</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="16"/>
+    </row>
+    <row r="12" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="n">
+        <v>12619</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C3:G9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19"/>
@@ -30364,55 +30995,89 @@
   <sheetData>
     <row r="3" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C4" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="C5" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C6" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="23" t="s">
+      <c r="C6" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="26" t="s">
+      <c r="C7" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="27" t="n">
+      <c r="F7" s="28" t="n">
         <v>8</v>
       </c>
-      <c r="G7" s="28" t="n">
+      <c r="G7" s="29" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C8" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="28" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" s="29" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -30428,4 +31093,27 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>